--- a/assets/data/data.xlsx
+++ b/assets/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eho/Dropbox/Muristalden DB/SJ 21-22/21-22 10 Wissenschaftswoche/Datenanalyse/2022 bubblecharts/bubbles-muristalden-main/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9d217ab99d39bc8/Dokumente/Wissenschaftswoche 22/bubbles-muristalden-main/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7001FAD3-2AF8-6843-A5C4-C54668C5F12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27260" xr2:uid="{6B69ADE4-A701-2D46-8A67-E540E989F12C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{6B69ADE4-A701-2D46-8A67-E540E989F12C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -600,11 +600,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E309CC08-ED1A-B049-A4B2-49766F74ECB5}">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T199" sqref="T199"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
@@ -624,7 +624,7 @@
     <col min="22" max="22" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -689,7 +689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -13705,12 +13705,12 @@
       <selection activeCell="B14" sqref="B14:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2021</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2021</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2021</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2022</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2022</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2022</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2022</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F10">
         <v>2022</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>2022</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F13">
         <v>2022</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2021</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2021</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2021</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2021</v>
       </c>
@@ -14019,7 +14019,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2022</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>2022</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2022</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>2022</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F22">
         <v>2021</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F23">
         <v>2021</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F24">
         <v>2021</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F25">
         <v>2021</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F26">
         <v>2021</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F27">
         <v>2022</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F28">
         <v>2022</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F29">
         <v>2022</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F30">
         <v>2022</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F31">
         <v>2022</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F32">
         <v>2022</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F33">
         <v>2022</v>
       </c>
